--- a/config_debug/fish3d_cache_config.xlsx
+++ b/config_debug/fish3d_cache_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanqp\Desktop\天天欢乐捕鱼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="241">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -72,40 +72,831 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>炸弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj</t>
-  </si>
-  <si>
     <t>转盘1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhadanyu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>baozha</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>开枪特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing_yan</t>
+  </si>
+  <si>
+    <t>冰冻的冰气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币获得1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币获得2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishBoomPrefab</t>
+  </si>
+  <si>
+    <t>鱼潮字幕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishingFlyToolPrefab</t>
+  </si>
+  <si>
+    <t>获得碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiguang_attack_node_1</t>
+  </si>
+  <si>
+    <t>极光蓄力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_bjsk</t>
+  </si>
+  <si>
+    <t>activity_mfsk</t>
+  </si>
+  <si>
+    <t>activity_wlsk</t>
+  </si>
+  <si>
+    <t>activity_all_gold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动2</t>
+  </si>
+  <si>
+    <t>活动3</t>
+  </si>
+  <si>
+    <t>活动4</t>
+  </si>
+  <si>
+    <t>活动5</t>
+  </si>
+  <si>
+    <t>活动6</t>
+  </si>
+  <si>
+    <t>Upgrade attack</t>
+  </si>
+  <si>
+    <t>双倍时刻特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击时刻特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币飘字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300bei_shuzi_Bj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼死亡气泡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆机1</t>
+  </si>
+  <si>
+    <t>300倍1</t>
+  </si>
+  <si>
+    <t>300倍2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300bei_jingbi_other_1</t>
+  </si>
+  <si>
+    <t>activity_bullet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽子卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+  </si>
+  <si>
+    <t>河豚</t>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+  </si>
+  <si>
+    <t>虎鲸</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+  </si>
+  <si>
+    <t>Fish3D029</t>
+  </si>
+  <si>
+    <t>Fish3D031</t>
+  </si>
+  <si>
+    <t>Fish3D036</t>
+  </si>
+  <si>
+    <t>闪电发射点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电连接线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_sd_sj_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_sd_sj_02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电循环受击点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电瞬间受击点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_siwang_lan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级鱼死亡爆破效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_siwang_jin</t>
+  </si>
+  <si>
+    <t>3级鱼死亡爆破效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_qiepin</t>
+  </si>
+  <si>
+    <t>鱼潮泡泡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_UI_zdy</t>
+  </si>
+  <si>
+    <t>鱼死亡效果4级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼死亡效果3级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼死亡效果2级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>biankuang_glow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3D_hwlx</t>
+  </si>
+  <si>
+    <t>boss鱼潮1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishingFlyZongziPrefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3D_diancipao</t>
+  </si>
+  <si>
+    <t>电磁炮光柱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3D_diancipao_fanwei</t>
+  </si>
+  <si>
+    <t>电磁炮范围标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3D_diancipao_js</t>
+  </si>
+  <si>
+    <t>fishing3D_diancipao_luoxia</t>
+  </si>
+  <si>
+    <t>电磁炮炮台效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁炮落下效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_jingbi</t>
+  </si>
+  <si>
+    <t>金币飞溅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼爆炸1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼爆炸2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3DMoneyNumber</t>
+  </si>
+  <si>
+    <t>special_fish3d</t>
+  </si>
+  <si>
+    <t>特殊鱼出现提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiguang_attack_node</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300bei_jingbi_other</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300bei_shuzi_Bj_other</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_dyj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_hwlx_bg_hong</t>
+  </si>
+  <si>
+    <t>Fishing3D_hwlx_bg_lan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss鱼潮持续效果1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss鱼潮持续效果2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_sd_fashe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_sd_Line_01</t>
+  </si>
+  <si>
+    <t>Fishing3D_sd_Line_02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大Boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小Boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_jlyx_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_zhaohuan_jing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_boss1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神死亡表现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_anim_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞银币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_ys_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyh_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大赢家_小</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大赢家_大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_js_jingbi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币飞溅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_zty_baozha</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_dyj_xiao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3D_hwlx_px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3D_diancipao2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸红光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_bomb_fwq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_js_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_djxg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D046</t>
+  </si>
+  <si>
+    <t>Fish3D047</t>
+  </si>
+  <si>
+    <t>Fish3D050</t>
+  </si>
+  <si>
+    <t>Fish3D051</t>
+  </si>
+  <si>
+    <t>Fish3D052</t>
+  </si>
+  <si>
+    <t>Fish3D054</t>
+  </si>
+  <si>
+    <t>Fish3D056</t>
+  </si>
+  <si>
+    <t>Fish3D057</t>
+  </si>
+  <si>
+    <t>Fish3D058</t>
+  </si>
+  <si>
+    <t>Fish3D059</t>
+  </si>
+  <si>
+    <t>奖励游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神</t>
+  </si>
+  <si>
+    <t>Fish3D062</t>
+  </si>
+  <si>
+    <t>Fish3D063</t>
+  </si>
+  <si>
+    <t>Fish3D064</t>
+  </si>
+  <si>
+    <t>Fish3D065</t>
+  </si>
+  <si>
+    <t>Fish3D068</t>
+  </si>
+  <si>
+    <t>Fish3D070</t>
+  </si>
+  <si>
+    <t>Fish3D071</t>
+  </si>
+  <si>
+    <t>Fish3D072</t>
+  </si>
+  <si>
+    <t>Fish3D073</t>
+  </si>
+  <si>
+    <t>Fish3D074</t>
+  </si>
+  <si>
+    <t>Fish3D061</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D066</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D080</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D067</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D055</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D069</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D045</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D020</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D081</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D079</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D027</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D049</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D048</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D075</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D034</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D041</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D076</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D053</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D077</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D083</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D082</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D028</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D078</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牛角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小气泡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小燕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄鳍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小灯笼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小水母</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小章鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大小丑鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大灯笼鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大燕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金灯笼鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金狮子鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蟾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金鲨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电海鳗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇遇蟹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子龟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鲨鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼武士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙龟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝蟾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海鲸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大王乌贼-触角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3DBOX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D036_jl_bao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_zdy_baozha_da</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_zdy_baozha_xiao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing3D_jbsz_baozha</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumGlod3DPrefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>paokou</t>
-  </si>
-  <si>
-    <t>开枪特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing_yan</t>
-  </si>
-  <si>
-    <t>冰冻的冰气</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -113,150 +904,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>金币获得1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币获得2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishBoomPrefab</t>
-  </si>
-  <si>
-    <t>鱼潮字幕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishingFlyToolPrefab</t>
-  </si>
-  <si>
-    <t>获得碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiguang_attack_node_1</t>
-  </si>
-  <si>
-    <t>极光蓄力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_bjsk</t>
-  </si>
-  <si>
-    <t>activity_mfsk</t>
-  </si>
-  <si>
     <t>activity_tssk</t>
-  </si>
-  <si>
-    <t>activity_wlsk</t>
-  </si>
-  <si>
-    <t>activity_all_gold</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动2</t>
-  </si>
-  <si>
-    <t>活动3</t>
-  </si>
-  <si>
-    <t>活动4</t>
-  </si>
-  <si>
-    <t>活动5</t>
-  </si>
-  <si>
-    <t>活动6</t>
-  </si>
-  <si>
-    <t>子弹1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BulletPrefab_free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_cjhl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_sbsk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔网1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Crit_time</t>
-  </si>
-  <si>
-    <t>Upgrade attack</t>
-  </si>
-  <si>
-    <t>双倍时刻特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击时刻特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币飘字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300bei_shuzi_Bj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ywdj_Siwang</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -264,805 +920,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>鱼死亡气泡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆机1</t>
-  </si>
-  <si>
-    <t>300倍1</t>
-  </si>
-  <si>
-    <t>300倍2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300bei_jingbi_other_1</t>
-  </si>
-  <si>
-    <t>activity_bullet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动子弹1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_bullet1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动子弹2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_bullet2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小丑鱼</t>
-  </si>
-  <si>
-    <t>河豚</t>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-  </si>
-  <si>
-    <t>魔鬼鱼</t>
-  </si>
-  <si>
-    <t>虎鲸</t>
-  </si>
-  <si>
-    <t>美人鱼</t>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-  </si>
-  <si>
-    <t>Fish3D029</t>
-  </si>
-  <si>
-    <t>Fish3D031</t>
-  </si>
-  <si>
-    <t>Fish3D036</t>
-  </si>
-  <si>
-    <t>闪电发射点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电连接线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_sd_sj_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_sd_sj_02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电循环受击点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电瞬间受击点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_siwang_lan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级鱼死亡爆破效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_siwang_jin</t>
-  </si>
-  <si>
-    <t>3级鱼死亡爆破效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_qiepin</t>
-  </si>
-  <si>
-    <t>鱼潮泡泡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_UI_zdy</t>
-  </si>
-  <si>
-    <t>鱼死亡效果4级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼死亡效果3级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼死亡效果2级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_1</t>
-  </si>
-  <si>
-    <t>BulletPrefab_free1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_1</t>
-  </si>
-  <si>
-    <t>biankuang_glow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing3D_hwlx</t>
-  </si>
-  <si>
-    <t>boss鱼潮1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishingFlyZongziPrefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>zongzi</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing3D_diancipao</t>
-  </si>
-  <si>
-    <t>电磁炮光柱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing3D_diancipao_fanwei</t>
-  </si>
-  <si>
-    <t>电磁炮范围标记</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing3D_diancipao_js</t>
-  </si>
-  <si>
-    <t>fishing3D_diancipao_luoxia</t>
-  </si>
-  <si>
-    <t>电磁炮炮台效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁炮落下效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_jingbi</t>
-  </si>
-  <si>
-    <t>金币飞溅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_zdy_baozha_da</t>
-  </si>
-  <si>
-    <t>炸弹鱼爆炸1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_zdy_baozha_xiao</t>
-  </si>
-  <si>
-    <t>炸弹鱼爆炸2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3DMoneyNumber</t>
-  </si>
-  <si>
-    <t>special_fish3d</t>
-  </si>
-  <si>
-    <t>特殊鱼出现提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiguang_attack_node</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300bei_jingbi_other</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300bei_shuzi_Bj_other</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_dyj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ywdj_Siwang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_hwlx_bg_hong</t>
-  </si>
-  <si>
-    <t>Fishing3D_hwlx_bg_lan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss鱼潮持续效果1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss鱼潮持续效果2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_sd_fashe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_sd_Line_01</t>
-  </si>
-  <si>
-    <t>Fishing3D_sd_Line_02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d_cj2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大Boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小Boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_jlyx_prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_zhaohuan_jing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_boss1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神死亡表现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_anim_prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞银币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_ys_prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hyh_prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大赢家_小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大赢家_大</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_js_jingbi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币飞溅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头爆炸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_zty_baozha</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_dyj_xiao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing3D_hwlx_px</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing3D_diancipao2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸红光</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹渔网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_zt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_bomb_fwq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumGlod3DPrefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_js_prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishing3D_djxg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D046</t>
-  </si>
-  <si>
-    <t>Fish3D047</t>
-  </si>
-  <si>
-    <t>Fish3D050</t>
-  </si>
-  <si>
-    <t>Fish3D051</t>
-  </si>
-  <si>
-    <t>Fish3D052</t>
-  </si>
-  <si>
-    <t>Fish3D054</t>
-  </si>
-  <si>
-    <t>Fish3D056</t>
-  </si>
-  <si>
-    <t>Fish3D057</t>
-  </si>
-  <si>
-    <t>Fish3D058</t>
-  </si>
-  <si>
-    <t>Fish3D059</t>
-  </si>
-  <si>
-    <t>奖励游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神</t>
-  </si>
-  <si>
-    <t>Fish3D062</t>
-  </si>
-  <si>
-    <t>Fish3D063</t>
-  </si>
-  <si>
-    <t>Fish3D064</t>
-  </si>
-  <si>
-    <t>Fish3D065</t>
-  </si>
-  <si>
-    <t>Fish3D068</t>
-  </si>
-  <si>
-    <t>Fish3D070</t>
-  </si>
-  <si>
-    <t>Fish3D071</t>
-  </si>
-  <si>
-    <t>Fish3D072</t>
-  </si>
-  <si>
-    <t>Fish3D073</t>
-  </si>
-  <si>
-    <t>Fish3D074</t>
-  </si>
-  <si>
-    <t>Fish3D061</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D066</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D080</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D067</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D055</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D060</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D069</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D045</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D020</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D081</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D079</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D027</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D049</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D048</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D075</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D034</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D041</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D076</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D053</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D077</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D083</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D082</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D028</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D078</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小牛角</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小气泡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小燕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黄鳍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小灯笼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小旗鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小水母</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小章鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大小丑鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大灯笼鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大燕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金灯笼鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金狮子鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金海龟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金河豚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蟾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大金鲨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电海鳗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇遇蟹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>骰子龟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鲨鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼武士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙龟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝蟾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海鲸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大王乌贼-触角</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼宝箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3DBOX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d_cj1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景2</t>
-  </si>
-  <si>
-    <t>场景3</t>
-  </si>
-  <si>
-    <t>场景4</t>
-  </si>
-  <si>
-    <t>场景5</t>
-  </si>
-  <si>
-    <t>fish3d_cj3</t>
-  </si>
-  <si>
-    <t>fish3d_cj4</t>
-  </si>
-  <si>
-    <t>fish3d_cj5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,14 +961,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1171,7 +1029,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,9 +1037,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1193,7 +1048,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1491,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,35 +1370,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>174</v>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -1562,38 +1417,28 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>198</v>
+      <c r="B3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="1">
         <v>80</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>188</v>
+      <c r="B4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
@@ -1616,11 +1461,11 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>189</v>
+      <c r="B5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
@@ -1643,11 +1488,11 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>190</v>
+      <c r="B6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
@@ -1670,11 +1515,11 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>191</v>
+      <c r="B7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
@@ -1697,14 +1542,14 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>199</v>
+      <c r="B8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D8" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1714,7 +1559,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1724,14 +1569,14 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>200</v>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1740,8 +1585,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1751,14 +1596,14 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>201</v>
+      <c r="B10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D10" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1767,8 +1612,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1778,11 +1623,11 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>202</v>
+      <c r="B11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D11" s="1">
         <v>30</v>
@@ -1794,8 +1639,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1805,11 +1650,11 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>203</v>
+      <c r="B12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D12" s="1">
         <v>30</v>
@@ -1821,8 +1666,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1832,11 +1677,11 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>192</v>
+      <c r="B13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="D13" s="1">
         <v>30</v>
@@ -1848,8 +1693,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1859,11 +1704,11 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>204</v>
+      <c r="B14" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -1874,11 +1719,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1888,11 +1731,11 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>193</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -1903,9 +1746,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1915,14 +1760,14 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>194</v>
       </c>
+      <c r="C16" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1931,8 +1776,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1942,11 +1787,11 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>205</v>
+      <c r="B17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -1959,7 +1804,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1969,11 +1814,11 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>195</v>
+      <c r="B18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D18" s="1">
         <v>20</v>
@@ -1996,11 +1841,11 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>196</v>
+      <c r="B19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D19" s="1">
         <v>20</v>
@@ -2012,7 +1857,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2024,10 +1869,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>197</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
@@ -2039,7 +1884,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2050,11 +1895,11 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>206</v>
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -2066,7 +1911,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2077,14 +1922,14 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>207</v>
+      <c r="B22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D22" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2093,7 +1938,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2104,11 +1949,11 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>208</v>
+      <c r="B23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -2131,11 +1976,11 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>209</v>
+      <c r="B24" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
@@ -2147,8 +1992,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2158,11 +2003,11 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>176</v>
+      <c r="B25" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
@@ -2174,8 +2019,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2185,11 +2030,11 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>177</v>
+      <c r="B26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -2201,8 +2046,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2212,11 +2057,11 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>210</v>
+      <c r="B27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
@@ -2228,8 +2073,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2239,11 +2084,11 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>211</v>
+      <c r="B28" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
@@ -2255,8 +2100,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2266,11 +2111,11 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>212</v>
+      <c r="B29" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -2282,8 +2127,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2293,14 +2138,14 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>213</v>
+      <c r="B30" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2309,8 +2154,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2320,11 +2165,11 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>214</v>
+      <c r="B31" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -2336,8 +2181,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2347,11 +2192,11 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>215</v>
+      <c r="B32" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
@@ -2363,8 +2208,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2374,11 +2219,11 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>216</v>
+      <c r="B33" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
@@ -2390,8 +2235,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2401,11 +2246,11 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>82</v>
+      <c r="B34" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
@@ -2417,8 +2262,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2428,11 +2273,11 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>81</v>
+      <c r="B35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
@@ -2444,8 +2289,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2455,11 +2300,11 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>178</v>
+      <c r="B36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -2471,8 +2316,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2482,11 +2327,11 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>179</v>
+      <c r="B37" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -2498,8 +2343,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2509,11 +2354,11 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>180</v>
+      <c r="B38" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -2525,18 +2370,22 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>217</v>
+      <c r="B39" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -2550,23 +2399,19 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>83</v>
+      <c r="B40" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2587,10 +2432,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>218</v>
+        <v>57</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2613,11 +2458,11 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>219</v>
+      <c r="B42" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -2640,11 +2485,11 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>181</v>
+      <c r="B43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2667,11 +2512,11 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>220</v>
+      <c r="B44" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -2684,7 +2529,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2694,11 +2539,11 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>182</v>
+      <c r="B45" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -2710,8 +2555,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2721,11 +2566,11 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>221</v>
+      <c r="B46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -2737,8 +2582,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="4"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2748,11 +2593,11 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>183</v>
+      <c r="B47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -2765,7 +2610,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="3"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2775,11 +2620,11 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>184</v>
+      <c r="B48" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -2791,8 +2636,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2802,11 +2647,11 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>222</v>
+      <c r="B49" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -2818,8 +2663,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2829,11 +2674,11 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>185</v>
+      <c r="B50" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -2845,8 +2690,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2856,14 +2701,14 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>223</v>
       </c>
+      <c r="C51" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="D51" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2872,8 +2717,8 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2883,14 +2728,14 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>266</v>
+      <c r="B52" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D52" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2899,8 +2744,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2910,14 +2755,14 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="4">
-        <v>50</v>
+      <c r="B53" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2926,8 +2771,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -2938,12 +2783,12 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="4">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="3">
         <v>50</v>
       </c>
       <c r="E54" s="1">
@@ -2953,8 +2798,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -2965,12 +2810,12 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="4">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
         <v>50</v>
       </c>
       <c r="E55" s="1">
@@ -2980,8 +2825,8 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -2991,14 +2836,14 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="4">
-        <v>30</v>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3007,8 +2852,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3018,14 +2863,14 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="4">
-        <v>30</v>
+      <c r="B57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3">
+        <v>12</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3045,14 +2890,14 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="4">
-        <v>16</v>
+      <c r="B58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="3">
+        <v>10</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3073,12 +2918,12 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="4">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" s="1">
         <v>20</v>
       </c>
       <c r="E59" s="1">
@@ -3089,11 +2934,11 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>19</v>
+      <c r="B60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D60" s="1">
         <v>20</v>
@@ -3107,13 +2952,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D61" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -3123,14 +2968,14 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>21</v>
+      <c r="B62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3140,14 +2985,14 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>103</v>
+      <c r="B63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D63" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3157,11 +3002,11 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>27</v>
+      <c r="B64" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -3170,49 +3015,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>94</v>
+      <c r="B65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>129</v>
+      <c r="B66" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>96</v>
+      <c r="B67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D67" s="1">
         <v>12</v>
@@ -3221,32 +3066,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>175</v>
+      <c r="B68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D68" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>126</v>
+      <c r="B69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
@@ -3255,50 +3100,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>28</v>
+      <c r="B70" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D70" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>130</v>
+      <c r="B71" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D71" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="C72" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
@@ -3306,100 +3151,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>37</v>
+      <c r="B73" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D73" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>39</v>
+      <c r="B74" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D74" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>40</v>
+      <c r="B75" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>34</v>
+      <c r="B76" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="D76" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>42</v>
+      <c r="B77" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D77" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>36</v>
+      <c r="B78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="D78" s="1">
         <v>4</v>
@@ -3408,319 +3253,307 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>100</v>
+      <c r="B79" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D79" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>101</v>
+      <c r="B80" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D80" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>46</v>
+      <c r="B81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D81" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>50</v>
+      <c r="B82" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D82" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>51</v>
+      <c r="B83" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D83" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>102</v>
+      <c r="B84" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D84" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>54</v>
+      <c r="B85" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D85" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>55</v>
+      <c r="B86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>123</v>
+      <c r="B87" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D87" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>60</v>
+      <c r="B88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>61</v>
+      <c r="C89" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D89" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D90" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>66</v>
+      <c r="B92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D92" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>68</v>
+      <c r="B93" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D93" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>70</v>
+      <c r="B94" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D94" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>106</v>
+      <c r="B95" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D95" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>107</v>
+      <c r="B96" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D96" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -3730,14 +3563,14 @@
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>136</v>
+      <c r="B97" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D97" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -3747,14 +3580,14 @@
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>142</v>
+      <c r="B98" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D98" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -3764,14 +3597,14 @@
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>86</v>
+      <c r="B99" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D99" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3781,14 +3614,14 @@
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>89</v>
+      <c r="B100" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="D100" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3798,11 +3631,11 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>90</v>
+      <c r="B101" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D101" s="1">
         <v>10</v>
@@ -3815,14 +3648,14 @@
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>93</v>
+      <c r="B102" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D102" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -3832,11 +3665,11 @@
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="7" t="s">
         <v>104</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -3849,11 +3682,11 @@
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>110</v>
+      <c r="B104" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -3866,14 +3699,14 @@
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>111</v>
+      <c r="B105" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3883,14 +3716,14 @@
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>113</v>
+      <c r="B106" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D106" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3900,14 +3733,14 @@
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>114</v>
+      <c r="B107" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -3917,14 +3750,14 @@
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>117</v>
+      <c r="B108" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D108" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3934,14 +3767,14 @@
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>119</v>
+      <c r="B109" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D109" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -3951,14 +3784,14 @@
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>121</v>
+      <c r="C110" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D110" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -3968,14 +3801,14 @@
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>124</v>
+      <c r="B111" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D111" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3985,459 +3818,152 @@
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>133</v>
+      <c r="B112" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D112" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>132</v>
+      <c r="B113" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>156</v>
+      <c r="B114" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D114" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>139</v>
+      <c r="B115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D115" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>140</v>
+      <c r="B116" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D116" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>141</v>
+      <c r="B117" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D117" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>143</v>
+      <c r="B118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D118" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>143</v>
+      <c r="B119" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D119" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>267</v>
+      <c r="B120" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D120" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D121" s="1">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" s="1">
-        <v>20</v>
-      </c>
-      <c r="E125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D126" s="1">
-        <v>4</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D127" s="1">
-        <v>4</v>
-      </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="1">
-        <v>20</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D129" s="1">
-        <v>6</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D130" s="1">
-        <v>6</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D131" s="1">
-        <v>4</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D132" s="1">
-        <v>4</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D133" s="1">
-        <v>2</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D134" s="1">
-        <v>1</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D135" s="1">
-        <v>1</v>
-      </c>
-      <c r="E135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D136" s="1">
-        <v>4</v>
-      </c>
-      <c r="E136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" s="1">
-        <v>4</v>
-      </c>
-      <c r="E137" s="1">
         <v>1</v>
       </c>
     </row>
